--- a/script/Resume - Timeline.xlsx
+++ b/script/Resume - Timeline.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUISRICARDOGerbelli\Documents\GitHub\resume\script\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AD6666-58B7-40FB-8DE0-FE4C7276E5EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F58BBD5C-BD39-4352-B335-60A07AFEE411}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
     <sheet name="Description" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Description!$A$1:$BV$69</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Timeline!$A$2:$GT$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Description!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Timeline!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="273">
   <si>
     <t>Carrefour - Logística</t>
   </si>
@@ -157,9 +151,6 @@
     <t>Omega</t>
   </si>
   <si>
-    <t>Cognitive and Analytics Practive Leader</t>
-  </si>
-  <si>
     <t>Project Manager</t>
   </si>
   <si>
@@ -230,12 +221,6 @@
   </si>
   <si>
     <t>Vale - Absenteísmo</t>
-  </si>
-  <si>
-    <t>Vale</t>
-  </si>
-  <si>
-    <t>Telefonica</t>
   </si>
   <si>
     <t>Summary</t>
@@ -658,12 +643,6 @@
     <t>Index</t>
   </si>
   <si>
-    <t>Financial planning consultant</t>
-  </si>
-  <si>
-    <t>Management role</t>
-  </si>
-  <si>
     <t>Who am I?</t>
   </si>
   <si>
@@ -704,9 +683,6 @@
   </si>
   <si>
     <t>Data science</t>
-  </si>
-  <si>
-    <t>Project Management</t>
   </si>
   <si>
     <t>IT strategy</t>
@@ -796,9 +772,6 @@
     <t>Website</t>
   </si>
   <si>
-    <t>Financial planning</t>
-  </si>
-  <si>
     <t>Business analysis</t>
   </si>
   <si>
@@ -868,19 +841,22 @@
     <t>2.1.2.5</t>
   </si>
   <si>
-    <t>BRL - Modelagem sistêmica</t>
-  </si>
-  <si>
     <t>Sensitivity analysis for chicken productive chains</t>
   </si>
   <si>
     <t>BRF - Modelagem sistêmica</t>
   </si>
+  <si>
+    <t>Business intelligence</t>
+  </si>
+  <si>
+    <t>Leadership role</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/yy"/>
@@ -1361,7 +1337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1413,7 +1389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1607,24 +1583,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD089DA4-A45A-4D5D-B651-AF152B69C7F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HC43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="22"/>
+    <col min="1" max="2" width="9.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="11" width="3.42578125" style="43" customWidth="1"/>
     <col min="12" max="12" width="1" style="12" customWidth="1"/>
@@ -1668,37 +1644,37 @@
   <sheetData>
     <row r="1" spans="1:211" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D1" s="40" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H1" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="40" t="s">
         <v>43</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>44</v>
       </c>
       <c r="L1" s="6">
         <v>38473</v>
@@ -32336,7 +32312,7 @@
         <v>44256</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
@@ -35624,7 +35600,7 @@
         <v>44409</v>
       </c>
       <c r="C43" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D43" s="42"/>
       <c r="E43" s="42">
@@ -36464,7 +36440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A05EAE7-1C90-4D07-9C0F-A0D68AB54A1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -36506,184 +36482,184 @@
   <sheetData>
     <row r="1" spans="1:65" s="44" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F1" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>47</v>
-      </c>
       <c r="J1" s="53" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K1" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="O1" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="P1" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q1" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="R1" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="S1" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="T1" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="U1" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="V1" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="W1" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="X1" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y1" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z1" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA1" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB1" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC1" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD1" s="69" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE1" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF1" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG1" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH1" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI1" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ1" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK1" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL1" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM1" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN1" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO1" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP1" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="L1" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="O1" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="P1" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q1" s="69" t="s">
-        <v>253</v>
-      </c>
-      <c r="R1" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="S1" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="T1" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="U1" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="V1" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="W1" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="X1" s="52" t="s">
+      <c r="AQ1" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR1" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="AS1" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="AT1" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="AU1" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="AV1" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="AW1" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="AX1" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="AY1" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ1" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="BA1" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="BB1" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="BC1" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="BD1" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="BE1" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="BF1" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG1" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="BH1" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="BI1" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="BJ1" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK1" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="Y1" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z1" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA1" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB1" s="52" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC1" s="52" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD1" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="AE1" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF1" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="AG1" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH1" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI1" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="AJ1" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK1" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="AL1" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="AM1" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="AN1" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="AO1" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="AP1" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="AQ1" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="AR1" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="AS1" s="52" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT1" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="AU1" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="AV1" s="54" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW1" s="69" t="s">
-        <v>241</v>
-      </c>
-      <c r="AX1" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="AY1" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="AZ1" s="69" t="s">
+      <c r="BL1" s="69" t="s">
         <v>245</v>
-      </c>
-      <c r="BA1" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="BB1" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="BC1" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="BD1" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="BE1" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="BF1" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="BG1" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="BH1" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="BI1" s="69" t="s">
-        <v>239</v>
-      </c>
-      <c r="BJ1" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="BK1" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL1" s="69" t="s">
-        <v>251</v>
       </c>
       <c r="BM1" s="77"/>
     </row>
@@ -36692,7 +36668,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -36702,7 +36678,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
       <c r="J2" s="55" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K2" s="56"/>
       <c r="L2" s="26"/>
@@ -36765,7 +36741,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -36775,7 +36751,7 @@
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
       <c r="J3" s="57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K3" s="58"/>
       <c r="L3" s="27"/>
@@ -36834,11 +36810,11 @@
     </row>
     <row r="4" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -36847,7 +36823,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
       <c r="J4" s="59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K4" s="60"/>
       <c r="L4" s="28"/>
@@ -36906,12 +36882,12 @@
     </row>
     <row r="5" spans="1:65" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="29"/>
@@ -36919,7 +36895,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
       <c r="J5" s="61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K5" s="62"/>
       <c r="L5" s="29"/>
@@ -36978,10 +36954,10 @@
     </row>
     <row r="6" spans="1:65" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" s="31">
         <v>43800</v>
@@ -36990,16 +36966,16 @@
         <v>43862</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L6" s="31"/>
       <c r="M6" s="31"/>
@@ -37013,7 +36989,7 @@
       <c r="U6" s="31"/>
       <c r="V6" s="31"/>
       <c r="W6" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="X6" s="31"/>
       <c r="Y6" s="31"/>
@@ -37026,23 +37002,23 @@
       <c r="AF6" s="31"/>
       <c r="AG6" s="31"/>
       <c r="AH6" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AI6" s="31"/>
       <c r="AJ6" s="31"/>
       <c r="AK6" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AL6" s="31"/>
       <c r="AM6" s="31"/>
       <c r="AN6" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AO6" s="31"/>
       <c r="AP6" s="31"/>
       <c r="AQ6" s="31"/>
       <c r="AR6" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AS6" s="31"/>
       <c r="AT6" s="31"/>
@@ -37067,7 +37043,7 @@
     </row>
     <row r="7" spans="1:65" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>33</v>
@@ -37079,16 +37055,16 @@
         <v>43800</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K7" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
@@ -37100,7 +37076,7 @@
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
       <c r="U7" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V7" s="31"/>
       <c r="W7" s="31"/>
@@ -37118,25 +37094,25 @@
       <c r="AI7" s="31"/>
       <c r="AJ7" s="31"/>
       <c r="AK7" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AL7" s="31"/>
       <c r="AM7" s="31"/>
       <c r="AN7" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AO7" s="31"/>
       <c r="AP7" s="31"/>
       <c r="AQ7" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AR7" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AS7" s="31"/>
       <c r="AT7" s="31"/>
       <c r="AU7" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AV7" s="64"/>
       <c r="AW7" s="74"/>
@@ -37158,7 +37134,7 @@
     </row>
     <row r="8" spans="1:65" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>32</v>
@@ -37170,16 +37146,16 @@
         <v>43770</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K8" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
@@ -37197,7 +37173,7 @@
       <c r="Y8" s="31"/>
       <c r="Z8" s="31"/>
       <c r="AA8" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AB8" s="31"/>
       <c r="AC8" s="31"/>
@@ -37209,17 +37185,17 @@
       <c r="AI8" s="31"/>
       <c r="AJ8" s="31"/>
       <c r="AK8" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AL8" s="31"/>
       <c r="AM8" s="31"/>
       <c r="AN8" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AO8" s="31"/>
       <c r="AP8" s="31"/>
       <c r="AQ8" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AR8" s="31"/>
       <c r="AS8" s="31"/>
@@ -37245,7 +37221,7 @@
     </row>
     <row r="9" spans="1:65" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>31</v>
@@ -37257,16 +37233,16 @@
         <v>43497</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K9" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
@@ -37287,7 +37263,7 @@
       <c r="AB9" s="31"/>
       <c r="AC9" s="31"/>
       <c r="AD9" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AE9" s="64"/>
       <c r="AF9" s="31"/>
@@ -37296,17 +37272,17 @@
       <c r="AI9" s="31"/>
       <c r="AJ9" s="31"/>
       <c r="AK9" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AL9" s="31"/>
       <c r="AM9" s="31"/>
       <c r="AN9" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AO9" s="31"/>
       <c r="AP9" s="31"/>
       <c r="AQ9" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AR9" s="31"/>
       <c r="AS9" s="31"/>
@@ -37332,7 +37308,7 @@
     </row>
     <row r="10" spans="1:65" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>30</v>
@@ -37344,16 +37320,16 @@
         <v>43435</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K10" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
@@ -37370,14 +37346,14 @@
       <c r="X10" s="31"/>
       <c r="Y10" s="31"/>
       <c r="Z10" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AA10" s="31"/>
       <c r="AB10" s="31"/>
       <c r="AC10" s="31"/>
       <c r="AD10" s="74"/>
       <c r="AE10" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AF10" s="31"/>
       <c r="AG10" s="31"/>
@@ -37385,12 +37361,12 @@
       <c r="AI10" s="31"/>
       <c r="AJ10" s="31"/>
       <c r="AK10" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AL10" s="31"/>
       <c r="AM10" s="31"/>
       <c r="AN10" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AO10" s="31"/>
       <c r="AP10" s="31"/>
@@ -37399,7 +37375,7 @@
       <c r="AS10" s="31"/>
       <c r="AT10" s="31"/>
       <c r="AU10" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AV10" s="64"/>
       <c r="AW10" s="74"/>
@@ -37421,10 +37397,10 @@
     </row>
     <row r="11" spans="1:65" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="31">
         <v>42795</v>
@@ -37433,16 +37409,16 @@
         <v>43040</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K11" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
@@ -37456,7 +37432,7 @@
       <c r="U11" s="31"/>
       <c r="V11" s="31"/>
       <c r="W11" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
@@ -37472,24 +37448,24 @@
       <c r="AI11" s="31"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AL11" s="31"/>
       <c r="AM11" s="31"/>
       <c r="AN11" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AO11" s="31"/>
       <c r="AP11" s="31"/>
       <c r="AQ11" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AR11" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AS11" s="31"/>
       <c r="AT11" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AU11" s="74"/>
       <c r="AV11" s="64"/>
@@ -37512,10 +37488,10 @@
     </row>
     <row r="12" spans="1:65" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F12" s="31">
         <v>42917</v>
@@ -37524,16 +37500,16 @@
         <v>42948</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
@@ -37543,7 +37519,7 @@
       <c r="Q12" s="74"/>
       <c r="R12" s="64"/>
       <c r="S12" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="T12" s="31"/>
       <c r="U12" s="31"/>
@@ -37567,13 +37543,13 @@
       <c r="AM12" s="31"/>
       <c r="AN12" s="31"/>
       <c r="AO12" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AP12" s="31"/>
       <c r="AQ12" s="31"/>
       <c r="AR12" s="31"/>
       <c r="AS12" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AT12" s="31"/>
       <c r="AU12" s="74"/>
@@ -37597,7 +37573,7 @@
     </row>
     <row r="13" spans="1:65" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>27</v>
@@ -37609,16 +37585,16 @@
         <v>42826</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
@@ -37627,7 +37603,7 @@
       <c r="P13" s="31"/>
       <c r="Q13" s="74"/>
       <c r="R13" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="S13" s="31"/>
       <c r="T13" s="31"/>
@@ -37648,17 +37624,17 @@
       <c r="AI13" s="31"/>
       <c r="AJ13" s="31"/>
       <c r="AK13" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AL13" s="31"/>
       <c r="AM13" s="31"/>
       <c r="AN13" s="31"/>
       <c r="AO13" s="31"/>
       <c r="AP13" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AQ13" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AR13" s="31"/>
       <c r="AS13" s="31"/>
@@ -37684,12 +37660,12 @@
     </row>
     <row r="14" spans="1:65" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="29"/>
@@ -37697,7 +37673,7 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
       <c r="J14" s="61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K14" s="62"/>
       <c r="L14" s="29"/>
@@ -37756,10 +37732,10 @@
     </row>
     <row r="15" spans="1:65" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F15" s="31">
         <v>44197</v>
@@ -37768,16 +37744,16 @@
         <v>44409</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K15" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
@@ -37789,7 +37765,7 @@
       <c r="S15" s="31"/>
       <c r="T15" s="31"/>
       <c r="U15" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V15" s="31"/>
       <c r="W15" s="31"/>
@@ -37805,16 +37781,16 @@
       <c r="AG15" s="31"/>
       <c r="AH15" s="31"/>
       <c r="AI15" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AJ15" s="31"/>
       <c r="AK15" s="31"/>
       <c r="AL15" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AM15" s="31"/>
       <c r="AN15" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AO15" s="31"/>
       <c r="AP15" s="31"/>
@@ -37843,7 +37819,7 @@
     </row>
     <row r="16" spans="1:65" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>32</v>
@@ -37855,16 +37831,16 @@
         <v>43770</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K16" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
@@ -37882,7 +37858,7 @@
       <c r="Y16" s="31"/>
       <c r="Z16" s="31"/>
       <c r="AA16" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AB16" s="31"/>
       <c r="AC16" s="31"/>
@@ -37890,24 +37866,24 @@
       <c r="AE16" s="64"/>
       <c r="AF16" s="31"/>
       <c r="AG16" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AH16" s="31"/>
       <c r="AI16" s="31"/>
       <c r="AJ16" s="31"/>
       <c r="AK16" s="31"/>
       <c r="AL16" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AM16" s="31"/>
       <c r="AN16" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AO16" s="31"/>
       <c r="AP16" s="31"/>
       <c r="AQ16" s="31"/>
       <c r="AR16" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AS16" s="31"/>
       <c r="AT16" s="31"/>
@@ -37932,7 +37908,7 @@
     </row>
     <row r="17" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>29</v>
@@ -37944,16 +37920,16 @@
         <v>43374</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I17" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J17" s="63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K17" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
@@ -37967,7 +37943,7 @@
       <c r="U17" s="31"/>
       <c r="V17" s="31"/>
       <c r="W17" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
@@ -37978,23 +37954,23 @@
       <c r="AD17" s="74"/>
       <c r="AE17" s="64"/>
       <c r="AF17" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG17" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AH17" s="31"/>
       <c r="AI17" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AJ17" s="31"/>
       <c r="AK17" s="31"/>
       <c r="AL17" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AM17" s="31"/>
       <c r="AN17" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AO17" s="31"/>
       <c r="AP17" s="31"/>
@@ -38023,7 +37999,7 @@
     </row>
     <row r="18" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>28</v>
@@ -38035,16 +38011,16 @@
         <v>43160</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J18" s="63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K18" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
@@ -38064,25 +38040,25 @@
       <c r="AA18" s="31"/>
       <c r="AB18" s="31"/>
       <c r="AC18" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AD18" s="74"/>
       <c r="AE18" s="64"/>
       <c r="AF18" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG18" s="31"/>
       <c r="AH18" s="31"/>
       <c r="AI18" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AJ18" s="31"/>
       <c r="AK18" s="31"/>
       <c r="AL18" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AM18" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AN18" s="31"/>
       <c r="AO18" s="31"/>
@@ -38092,7 +38068,7 @@
       <c r="AS18" s="31"/>
       <c r="AT18" s="31"/>
       <c r="AU18" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AV18" s="64"/>
       <c r="AW18" s="74"/>
@@ -38114,7 +38090,7 @@
     </row>
     <row r="19" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>22</v>
@@ -38126,16 +38102,16 @@
         <v>42217</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I19" s="37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J19" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
@@ -38154,25 +38130,25 @@
       <c r="Z19" s="31"/>
       <c r="AA19" s="31"/>
       <c r="AB19" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AC19" s="31"/>
       <c r="AD19" s="74"/>
       <c r="AE19" s="64"/>
       <c r="AF19" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG19" s="31"/>
       <c r="AH19" s="31"/>
       <c r="AI19" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AJ19" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AK19" s="31"/>
       <c r="AL19" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AM19" s="31"/>
       <c r="AN19" s="31"/>
@@ -38203,11 +38179,11 @@
     </row>
     <row r="20" spans="1:64" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -38216,7 +38192,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
       <c r="J20" s="59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K20" s="60"/>
       <c r="L20" s="28"/>
@@ -38275,12 +38251,12 @@
     </row>
     <row r="21" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="29"/>
@@ -38288,7 +38264,7 @@
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
       <c r="J21" s="61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K21" s="62"/>
       <c r="L21" s="29"/>
@@ -38347,10 +38323,10 @@
     </row>
     <row r="22" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F22" s="31">
         <v>44013</v>
@@ -38359,17 +38335,17 @@
         <v>44409</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I22" s="37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J22" s="63" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K22" s="64"/>
       <c r="L22" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
@@ -38407,10 +38383,10 @@
       <c r="AT22" s="31"/>
       <c r="AU22" s="74"/>
       <c r="AV22" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AW22" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AX22" s="64"/>
       <c r="AY22" s="31"/>
@@ -38430,12 +38406,12 @@
     </row>
     <row r="23" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="29"/>
@@ -38443,7 +38419,7 @@
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
       <c r="J23" s="61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="29"/>
@@ -38502,10 +38478,10 @@
     </row>
     <row r="24" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="F24" s="31">
         <v>43952</v>
@@ -38514,20 +38490,20 @@
         <v>44166</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J24" s="63" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K24" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L24" s="31"/>
       <c r="M24" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
@@ -38539,7 +38515,7 @@
       <c r="U24" s="31"/>
       <c r="V24" s="31"/>
       <c r="W24" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="X24" s="31"/>
       <c r="Y24" s="31"/>
@@ -38552,7 +38528,7 @@
       <c r="AF24" s="31"/>
       <c r="AG24" s="31"/>
       <c r="AH24" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AI24" s="31"/>
       <c r="AJ24" s="31"/>
@@ -38560,7 +38536,7 @@
       <c r="AL24" s="31"/>
       <c r="AM24" s="31"/>
       <c r="AN24" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AO24" s="31"/>
       <c r="AP24" s="31"/>
@@ -38570,7 +38546,7 @@
       <c r="AT24" s="31"/>
       <c r="AU24" s="74"/>
       <c r="AV24" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AW24" s="74"/>
       <c r="AX24" s="64"/>
@@ -38591,10 +38567,10 @@
     </row>
     <row r="25" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F25" s="31">
         <v>44013</v>
@@ -38603,18 +38579,18 @@
         <v>44105</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J25" s="63" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K25" s="64"/>
       <c r="L25" s="31"/>
       <c r="M25" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
@@ -38633,7 +38609,7 @@
       <c r="AB25" s="31"/>
       <c r="AC25" s="31"/>
       <c r="AD25" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AE25" s="64"/>
       <c r="AF25" s="31"/>
@@ -38653,7 +38629,7 @@
       <c r="AT25" s="31"/>
       <c r="AU25" s="74"/>
       <c r="AV25" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AW25" s="74"/>
       <c r="AX25" s="64"/>
@@ -38662,7 +38638,7 @@
       <c r="BA25" s="64"/>
       <c r="BB25" s="31"/>
       <c r="BC25" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BD25" s="31"/>
       <c r="BE25" s="31"/>
@@ -38676,10 +38652,10 @@
     </row>
     <row r="26" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F26" s="31">
         <v>43466</v>
@@ -38688,18 +38664,18 @@
         <v>43983</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J26" s="63" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K26" s="64"/>
       <c r="L26" s="31"/>
       <c r="M26" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N26" s="31"/>
       <c r="O26" s="31"/>
@@ -38736,10 +38712,10 @@
       <c r="AT26" s="31"/>
       <c r="AU26" s="74"/>
       <c r="AV26" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AW26" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AX26" s="64"/>
       <c r="AY26" s="31"/>
@@ -38759,12 +38735,12 @@
     </row>
     <row r="27" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="29"/>
@@ -38772,7 +38748,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K27" s="62"/>
       <c r="L27" s="29"/>
@@ -38831,7 +38807,7 @@
     </row>
     <row r="28" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>38</v>
@@ -38843,19 +38819,19 @@
         <v>44256</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I28" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J28" s="63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K28" s="64"/>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
       <c r="N28" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O28" s="31"/>
       <c r="P28" s="31"/>
@@ -38863,7 +38839,7 @@
       <c r="R28" s="64"/>
       <c r="S28" s="31"/>
       <c r="T28" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="U28" s="31"/>
       <c r="V28" s="31"/>
@@ -38885,13 +38861,13 @@
       <c r="AL28" s="31"/>
       <c r="AM28" s="31"/>
       <c r="AN28" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AO28" s="31"/>
       <c r="AP28" s="31"/>
       <c r="AQ28" s="31"/>
       <c r="AR28" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AS28" s="31"/>
       <c r="AT28" s="31"/>
@@ -38916,7 +38892,7 @@
     </row>
     <row r="29" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>28</v>
@@ -38928,19 +38904,19 @@
         <v>43160</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J29" s="63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K29" s="64"/>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
       <c r="N29" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O29" s="31"/>
       <c r="P29" s="31"/>
@@ -38957,25 +38933,25 @@
       <c r="AA29" s="31"/>
       <c r="AB29" s="31"/>
       <c r="AC29" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AD29" s="74"/>
       <c r="AE29" s="64"/>
       <c r="AF29" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AG29" s="31"/>
       <c r="AH29" s="31"/>
       <c r="AI29" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AJ29" s="31"/>
       <c r="AK29" s="31"/>
       <c r="AL29" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AM29" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AN29" s="31"/>
       <c r="AO29" s="31"/>
@@ -38985,7 +38961,7 @@
       <c r="AS29" s="31"/>
       <c r="AT29" s="31"/>
       <c r="AU29" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AV29" s="64"/>
       <c r="AW29" s="74"/>
@@ -39007,7 +38983,7 @@
     </row>
     <row r="30" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>21</v>
@@ -39019,28 +38995,28 @@
         <v>42064</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J30" s="63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K30" s="64"/>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
       <c r="N30" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P30" s="31"/>
       <c r="Q30" s="74"/>
       <c r="R30" s="64"/>
       <c r="S30" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="T30" s="31"/>
       <c r="U30" s="31"/>
@@ -39090,7 +39066,7 @@
     </row>
     <row r="31" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>18</v>
@@ -39102,26 +39078,26 @@
         <v>41760</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J31" s="63" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K31" s="64"/>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
       <c r="N31" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O31" s="31"/>
       <c r="P31" s="31"/>
       <c r="Q31" s="74"/>
       <c r="R31" s="64"/>
       <c r="S31" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="T31" s="31"/>
       <c r="U31" s="31"/>
@@ -39160,7 +39136,7 @@
       <c r="BB31" s="31"/>
       <c r="BC31" s="31"/>
       <c r="BD31" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BE31" s="31"/>
       <c r="BF31" s="31"/>
@@ -39173,7 +39149,7 @@
     </row>
     <row r="32" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>6</v>
@@ -39185,19 +39161,19 @@
         <v>39783</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J32" s="63" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K32" s="64"/>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
       <c r="N32" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O32" s="31"/>
       <c r="P32" s="31"/>
@@ -39207,7 +39183,7 @@
       <c r="T32" s="31"/>
       <c r="U32" s="31"/>
       <c r="V32" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="W32" s="31"/>
       <c r="X32" s="31"/>
@@ -39247,10 +39223,10 @@
       <c r="BF32" s="31"/>
       <c r="BG32" s="31"/>
       <c r="BH32" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BI32" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BJ32" s="64"/>
       <c r="BK32" s="31"/>
@@ -39258,11 +39234,11 @@
     </row>
     <row r="33" spans="1:64" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="19" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -39271,7 +39247,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K33" s="60"/>
       <c r="L33" s="28"/>
@@ -39330,7 +39306,7 @@
     </row>
     <row r="34" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>37</v>
@@ -39342,20 +39318,20 @@
         <v>44197</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J34" s="63" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K34" s="64"/>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
       <c r="O34" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P34" s="31"/>
       <c r="Q34" s="74"/>
@@ -39363,7 +39339,7 @@
       <c r="S34" s="31"/>
       <c r="T34" s="31"/>
       <c r="U34" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V34" s="31"/>
       <c r="W34" s="31"/>
@@ -39395,10 +39371,10 @@
       <c r="AW34" s="74"/>
       <c r="AX34" s="64"/>
       <c r="AY34" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AZ34" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BA34" s="64"/>
       <c r="BB34" s="31"/>
@@ -39415,7 +39391,7 @@
     </row>
     <row r="35" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>35</v>
@@ -39427,20 +39403,20 @@
         <v>43922</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J35" s="63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K35" s="64"/>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P35" s="31"/>
       <c r="Q35" s="74"/>
@@ -39451,7 +39427,7 @@
       <c r="V35" s="31"/>
       <c r="W35" s="31"/>
       <c r="X35" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Y35" s="31"/>
       <c r="Z35" s="31"/>
@@ -39480,7 +39456,7 @@
       <c r="AW35" s="74"/>
       <c r="AX35" s="64"/>
       <c r="AY35" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AZ35" s="74"/>
       <c r="BA35" s="64"/>
@@ -39498,7 +39474,7 @@
     </row>
     <row r="36" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E36" s="18" t="s">
         <v>25</v>
@@ -39510,26 +39486,26 @@
         <v>42705</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J36" s="63" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K36" s="64"/>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
       <c r="N36" s="31"/>
       <c r="O36" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P36" s="31"/>
       <c r="Q36" s="74"/>
       <c r="R36" s="64"/>
       <c r="S36" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="T36" s="31"/>
       <c r="U36" s="31"/>
@@ -39562,7 +39538,7 @@
       <c r="AV36" s="64"/>
       <c r="AW36" s="74"/>
       <c r="AX36" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AY36" s="31"/>
       <c r="AZ36" s="74"/>
@@ -39581,7 +39557,7 @@
     </row>
     <row r="37" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>20</v>
@@ -39593,26 +39569,26 @@
         <v>41913</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I37" s="37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J37" s="63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K37" s="64"/>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
       <c r="N37" s="31"/>
       <c r="O37" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P37" s="31"/>
       <c r="Q37" s="74"/>
       <c r="R37" s="64"/>
       <c r="S37" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="T37" s="31"/>
       <c r="U37" s="31"/>
@@ -39647,7 +39623,7 @@
       <c r="AX37" s="64"/>
       <c r="AY37" s="31"/>
       <c r="AZ37" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BA37" s="64"/>
       <c r="BB37" s="31"/>
@@ -39664,7 +39640,7 @@
     </row>
     <row r="38" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>15</v>
@@ -39676,26 +39652,26 @@
         <v>41061</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I38" s="37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J38" s="63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K38" s="64"/>
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
       <c r="N38" s="31"/>
       <c r="O38" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P38" s="31"/>
       <c r="Q38" s="74"/>
       <c r="R38" s="64"/>
       <c r="S38" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="T38" s="31"/>
       <c r="U38" s="31"/>
@@ -39729,7 +39705,7 @@
       <c r="AW38" s="74"/>
       <c r="AX38" s="64"/>
       <c r="AY38" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AZ38" s="74"/>
       <c r="BA38" s="64"/>
@@ -39747,11 +39723,11 @@
     </row>
     <row r="39" spans="1:64" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="19" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -39760,7 +39736,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
       <c r="J39" s="59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K39" s="60"/>
       <c r="L39" s="28"/>
@@ -39819,12 +39795,12 @@
     </row>
     <row r="40" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="29"/>
@@ -39832,7 +39808,7 @@
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
       <c r="J40" s="61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K40" s="62"/>
       <c r="L40" s="29"/>
@@ -39891,7 +39867,7 @@
     </row>
     <row r="41" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>24</v>
@@ -39903,13 +39879,13 @@
         <v>42552</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I41" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J41" s="63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K41" s="64"/>
       <c r="L41" s="31"/>
@@ -39917,12 +39893,12 @@
       <c r="N41" s="31"/>
       <c r="O41" s="31"/>
       <c r="P41" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q41" s="74"/>
       <c r="R41" s="64"/>
       <c r="S41" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="T41" s="31"/>
       <c r="U41" s="31"/>
@@ -39958,14 +39934,14 @@
       <c r="AY41" s="31"/>
       <c r="AZ41" s="74"/>
       <c r="BA41" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BB41" s="31"/>
       <c r="BC41" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BD41" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BE41" s="31"/>
       <c r="BF41" s="31"/>
@@ -39978,7 +39954,7 @@
     </row>
     <row r="42" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E42" s="18" t="s">
         <v>23</v>
@@ -39990,13 +39966,13 @@
         <v>42339</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I42" s="37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J42" s="63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K42" s="64"/>
       <c r="L42" s="31"/>
@@ -40004,12 +39980,12 @@
       <c r="N42" s="31"/>
       <c r="O42" s="31"/>
       <c r="P42" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q42" s="74"/>
       <c r="R42" s="64"/>
       <c r="S42" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="T42" s="31"/>
       <c r="U42" s="31"/>
@@ -40046,13 +40022,13 @@
       <c r="AZ42" s="74"/>
       <c r="BA42" s="64"/>
       <c r="BB42" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BC42" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BD42" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BE42" s="31"/>
       <c r="BF42" s="31"/>
@@ -40065,7 +40041,7 @@
     </row>
     <row r="43" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E43" s="18" t="s">
         <v>19</v>
@@ -40077,13 +40053,13 @@
         <v>41974</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I43" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J43" s="63" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K43" s="64"/>
       <c r="L43" s="31"/>
@@ -40091,12 +40067,12 @@
       <c r="N43" s="31"/>
       <c r="O43" s="31"/>
       <c r="P43" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q43" s="74"/>
       <c r="R43" s="64"/>
       <c r="S43" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="T43" s="31"/>
       <c r="U43" s="31"/>
@@ -40133,11 +40109,11 @@
       <c r="AZ43" s="74"/>
       <c r="BA43" s="64"/>
       <c r="BB43" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BC43" s="31"/>
       <c r="BD43" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BE43" s="31"/>
       <c r="BF43" s="31"/>
@@ -40150,7 +40126,7 @@
     </row>
     <row r="44" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E44" s="18" t="s">
         <v>18</v>
@@ -40162,13 +40138,13 @@
         <v>41760</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J44" s="63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K44" s="64"/>
       <c r="L44" s="31"/>
@@ -40176,12 +40152,12 @@
       <c r="N44" s="31"/>
       <c r="O44" s="31"/>
       <c r="P44" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q44" s="74"/>
       <c r="R44" s="64"/>
       <c r="S44" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="T44" s="31"/>
       <c r="U44" s="31"/>
@@ -40218,11 +40194,11 @@
       <c r="AZ44" s="74"/>
       <c r="BA44" s="64"/>
       <c r="BB44" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BC44" s="31"/>
       <c r="BD44" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BE44" s="31"/>
       <c r="BF44" s="31"/>
@@ -40235,7 +40211,7 @@
     </row>
     <row r="45" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>17</v>
@@ -40247,13 +40223,13 @@
         <v>41579</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I45" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J45" s="63" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K45" s="64"/>
       <c r="L45" s="31"/>
@@ -40261,7 +40237,7 @@
       <c r="N45" s="31"/>
       <c r="O45" s="31"/>
       <c r="P45" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q45" s="74"/>
       <c r="R45" s="64"/>
@@ -40273,7 +40249,7 @@
       <c r="X45" s="31"/>
       <c r="Y45" s="31"/>
       <c r="Z45" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AA45" s="31"/>
       <c r="AB45" s="31"/>
@@ -40303,11 +40279,11 @@
       <c r="AZ45" s="74"/>
       <c r="BA45" s="64"/>
       <c r="BB45" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BC45" s="31"/>
       <c r="BD45" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BE45" s="31"/>
       <c r="BF45" s="31"/>
@@ -40320,12 +40296,12 @@
     </row>
     <row r="46" spans="1:64" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="29"/>
@@ -40333,7 +40309,7 @@
       <c r="H46" s="36"/>
       <c r="I46" s="36"/>
       <c r="J46" s="61" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K46" s="62"/>
       <c r="L46" s="29"/>
@@ -40392,7 +40368,7 @@
     </row>
     <row r="47" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>16</v>
@@ -40404,13 +40380,13 @@
         <v>41426</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I47" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J47" s="63" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K47" s="64"/>
       <c r="L47" s="31"/>
@@ -40418,18 +40394,18 @@
       <c r="N47" s="31"/>
       <c r="O47" s="31"/>
       <c r="P47" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q47" s="74"/>
       <c r="R47" s="64"/>
       <c r="S47" s="31"/>
       <c r="T47" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="U47" s="31"/>
       <c r="V47" s="31"/>
       <c r="W47" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="X47" s="31"/>
       <c r="Y47" s="31"/>
@@ -40461,19 +40437,19 @@
       <c r="AY47" s="31"/>
       <c r="AZ47" s="74"/>
       <c r="BA47" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BB47" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BC47" s="31"/>
       <c r="BD47" s="31"/>
       <c r="BE47" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BF47" s="31"/>
       <c r="BG47" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BH47" s="31"/>
       <c r="BI47" s="74"/>
@@ -40483,7 +40459,7 @@
     </row>
     <row r="48" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>12</v>
@@ -40495,13 +40471,13 @@
         <v>40756</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I48" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J48" s="63" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K48" s="64"/>
       <c r="L48" s="31"/>
@@ -40509,7 +40485,7 @@
       <c r="N48" s="31"/>
       <c r="O48" s="31"/>
       <c r="P48" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q48" s="74"/>
       <c r="R48" s="64"/>
@@ -40523,7 +40499,7 @@
       <c r="Z48" s="31"/>
       <c r="AA48" s="31"/>
       <c r="AB48" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AC48" s="31"/>
       <c r="AD48" s="74"/>
@@ -40550,19 +40526,19 @@
       <c r="AY48" s="31"/>
       <c r="AZ48" s="74"/>
       <c r="BA48" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BB48" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BC48" s="31"/>
       <c r="BD48" s="31"/>
       <c r="BE48" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BF48" s="31"/>
       <c r="BG48" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BH48" s="31"/>
       <c r="BI48" s="74"/>
@@ -40572,7 +40548,7 @@
     </row>
     <row r="49" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>11</v>
@@ -40584,13 +40560,13 @@
         <v>40391</v>
       </c>
       <c r="H49" s="37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I49" s="37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J49" s="63" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K49" s="64"/>
       <c r="L49" s="31"/>
@@ -40598,7 +40574,7 @@
       <c r="N49" s="31"/>
       <c r="O49" s="31"/>
       <c r="P49" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q49" s="74"/>
       <c r="R49" s="64"/>
@@ -40609,7 +40585,7 @@
       <c r="W49" s="31"/>
       <c r="X49" s="31"/>
       <c r="Y49" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Z49" s="31"/>
       <c r="AA49" s="31"/>
@@ -40639,13 +40615,13 @@
       <c r="AY49" s="31"/>
       <c r="AZ49" s="74"/>
       <c r="BA49" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BB49" s="31"/>
       <c r="BC49" s="31"/>
       <c r="BD49" s="31"/>
       <c r="BE49" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BF49" s="31"/>
       <c r="BG49" s="31"/>
@@ -40657,7 +40633,7 @@
     </row>
     <row r="50" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>10</v>
@@ -40669,13 +40645,13 @@
         <v>40269</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I50" s="37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J50" s="63" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K50" s="64"/>
       <c r="L50" s="31"/>
@@ -40683,7 +40659,7 @@
       <c r="N50" s="31"/>
       <c r="O50" s="31"/>
       <c r="P50" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q50" s="74"/>
       <c r="R50" s="64"/>
@@ -40694,7 +40670,7 @@
       <c r="W50" s="31"/>
       <c r="X50" s="31"/>
       <c r="Y50" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Z50" s="31"/>
       <c r="AA50" s="31"/>
@@ -40724,13 +40700,13 @@
       <c r="AY50" s="31"/>
       <c r="AZ50" s="74"/>
       <c r="BA50" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BB50" s="31"/>
       <c r="BC50" s="31"/>
       <c r="BD50" s="31"/>
       <c r="BE50" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BF50" s="31"/>
       <c r="BG50" s="31"/>
@@ -40742,7 +40718,7 @@
     </row>
     <row r="51" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>9</v>
@@ -40754,13 +40730,13 @@
         <v>40148</v>
       </c>
       <c r="H51" s="37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I51" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J51" s="63" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K51" s="64"/>
       <c r="L51" s="31"/>
@@ -40768,7 +40744,7 @@
       <c r="N51" s="31"/>
       <c r="O51" s="31"/>
       <c r="P51" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q51" s="74"/>
       <c r="R51" s="64"/>
@@ -40783,7 +40759,7 @@
       <c r="AA51" s="31"/>
       <c r="AB51" s="31"/>
       <c r="AC51" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AD51" s="74"/>
       <c r="AE51" s="64"/>
@@ -40810,16 +40786,16 @@
       <c r="AZ51" s="74"/>
       <c r="BA51" s="64"/>
       <c r="BB51" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BC51" s="31"/>
       <c r="BD51" s="31"/>
       <c r="BE51" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BF51" s="31"/>
       <c r="BG51" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BH51" s="31"/>
       <c r="BI51" s="74"/>
@@ -40829,7 +40805,7 @@
     </row>
     <row r="52" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>3</v>
@@ -40841,13 +40817,13 @@
         <v>39417</v>
       </c>
       <c r="H52" s="37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I52" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J52" s="63" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K52" s="64"/>
       <c r="L52" s="31"/>
@@ -40855,7 +40831,7 @@
       <c r="N52" s="31"/>
       <c r="O52" s="31"/>
       <c r="P52" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q52" s="74"/>
       <c r="R52" s="64"/>
@@ -40865,7 +40841,7 @@
       <c r="V52" s="31"/>
       <c r="W52" s="31"/>
       <c r="X52" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Y52" s="31"/>
       <c r="Z52" s="31"/>
@@ -40897,16 +40873,16 @@
       <c r="AZ52" s="74"/>
       <c r="BA52" s="64"/>
       <c r="BB52" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BC52" s="31"/>
       <c r="BD52" s="31"/>
       <c r="BE52" s="31"/>
       <c r="BF52" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BG52" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BH52" s="31"/>
       <c r="BI52" s="74"/>
@@ -40916,11 +40892,11 @@
     </row>
     <row r="53" spans="1:64" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
@@ -40929,7 +40905,7 @@
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
       <c r="J53" s="59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K53" s="60"/>
       <c r="L53" s="28"/>
@@ -40988,7 +40964,7 @@
     </row>
     <row r="54" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E54" s="18" t="s">
         <v>8</v>
@@ -41000,13 +40976,13 @@
         <v>39873</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I54" s="37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J54" s="63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K54" s="64"/>
       <c r="L54" s="31"/>
@@ -41015,15 +40991,15 @@
       <c r="O54" s="31"/>
       <c r="P54" s="31"/>
       <c r="Q54" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="R54" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="S54" s="31"/>
       <c r="T54" s="31"/>
       <c r="U54" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V54" s="31"/>
       <c r="W54" s="31"/>
@@ -41063,19 +41039,19 @@
       <c r="BE54" s="31"/>
       <c r="BF54" s="31"/>
       <c r="BG54" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BH54" s="31"/>
       <c r="BI54" s="74"/>
       <c r="BJ54" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BK54" s="31"/>
       <c r="BL54" s="74"/>
     </row>
     <row r="55" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E55" s="18" t="s">
         <v>7</v>
@@ -41087,13 +41063,13 @@
         <v>39814</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I55" s="37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J55" s="63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K55" s="64"/>
       <c r="L55" s="31"/>
@@ -41102,7 +41078,7 @@
       <c r="O55" s="31"/>
       <c r="P55" s="31"/>
       <c r="Q55" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="R55" s="64"/>
       <c r="S55" s="31"/>
@@ -41115,7 +41091,7 @@
       <c r="Z55" s="31"/>
       <c r="AA55" s="31"/>
       <c r="AB55" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AC55" s="31"/>
       <c r="AD55" s="74"/>
@@ -41148,19 +41124,19 @@
       <c r="BE55" s="31"/>
       <c r="BF55" s="31"/>
       <c r="BG55" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BH55" s="31"/>
       <c r="BI55" s="74"/>
       <c r="BJ55" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BK55" s="31"/>
       <c r="BL55" s="74"/>
     </row>
     <row r="56" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>5</v>
@@ -41172,13 +41148,13 @@
         <v>39539</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I56" s="37" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J56" s="63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K56" s="64"/>
       <c r="L56" s="31"/>
@@ -41187,7 +41163,7 @@
       <c r="O56" s="31"/>
       <c r="P56" s="31"/>
       <c r="Q56" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="R56" s="64"/>
       <c r="S56" s="31"/>
@@ -41196,7 +41172,7 @@
       <c r="V56" s="31"/>
       <c r="W56" s="31"/>
       <c r="X56" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Y56" s="31"/>
       <c r="Z56" s="31"/>
@@ -41236,16 +41212,16 @@
       <c r="BH56" s="31"/>
       <c r="BI56" s="74"/>
       <c r="BJ56" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BK56" s="31"/>
       <c r="BL56" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>2</v>
@@ -41257,13 +41233,13 @@
         <v>38777</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J57" s="63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K57" s="64"/>
       <c r="L57" s="31"/>
@@ -41272,7 +41248,7 @@
       <c r="O57" s="31"/>
       <c r="P57" s="31"/>
       <c r="Q57" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="R57" s="64"/>
       <c r="S57" s="31"/>
@@ -41281,7 +41257,7 @@
       <c r="V57" s="31"/>
       <c r="W57" s="31"/>
       <c r="X57" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Y57" s="31"/>
       <c r="Z57" s="31"/>
@@ -41321,16 +41297,16 @@
       <c r="BH57" s="31"/>
       <c r="BI57" s="74"/>
       <c r="BJ57" s="64" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BK57" s="31"/>
       <c r="BL57" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:64" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>0</v>
@@ -41342,13 +41318,13 @@
         <v>38626</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I58" s="37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J58" s="63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K58" s="64"/>
       <c r="L58" s="31"/>
@@ -41357,7 +41333,7 @@
       <c r="O58" s="31"/>
       <c r="P58" s="31"/>
       <c r="Q58" s="74" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="R58" s="64"/>
       <c r="S58" s="31"/>
@@ -41371,7 +41347,7 @@
       <c r="AA58" s="31"/>
       <c r="AB58" s="31"/>
       <c r="AC58" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AD58" s="74"/>
       <c r="AE58" s="64"/>
@@ -41407,7 +41383,7 @@
       <c r="BI58" s="74"/>
       <c r="BJ58" s="64"/>
       <c r="BK58" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="BL58" s="74"/>
     </row>
@@ -41416,7 +41392,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -41426,7 +41402,7 @@
       <c r="H59" s="34"/>
       <c r="I59" s="34"/>
       <c r="J59" s="57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K59" s="58"/>
       <c r="L59" s="27"/>
@@ -41485,11 +41461,11 @@
     </row>
     <row r="60" spans="1:64" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
@@ -41500,13 +41476,13 @@
         <v>43770</v>
       </c>
       <c r="H60" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="I60" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="I60" s="38" t="s">
-        <v>94</v>
-      </c>
       <c r="J60" s="65" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K60" s="66"/>
       <c r="L60" s="32"/>
@@ -41565,11 +41541,11 @@
     </row>
     <row r="61" spans="1:64" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
@@ -41580,13 +41556,13 @@
         <v>38322</v>
       </c>
       <c r="H61" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I61" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="J61" s="65" t="s">
         <v>92</v>
-      </c>
-      <c r="I61" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="J61" s="65" t="s">
-        <v>95</v>
       </c>
       <c r="K61" s="66"/>
       <c r="L61" s="32"/>
@@ -41648,7 +41624,7 @@
         <v>4</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -41658,7 +41634,7 @@
       <c r="H62" s="34"/>
       <c r="I62" s="34"/>
       <c r="J62" s="57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K62" s="58"/>
       <c r="L62" s="27"/>
@@ -41717,11 +41693,11 @@
     </row>
     <row r="63" spans="1:64" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
@@ -41730,7 +41706,7 @@
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
       <c r="J63" s="59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K63" s="60"/>
       <c r="L63" s="28"/>
@@ -41789,11 +41765,11 @@
     </row>
     <row r="64" spans="1:64" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
@@ -41802,7 +41778,7 @@
       <c r="H64" s="35"/>
       <c r="I64" s="51"/>
       <c r="J64" s="59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K64" s="60"/>
       <c r="L64" s="28"/>
@@ -41864,7 +41840,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -41874,7 +41850,7 @@
       <c r="H65" s="34"/>
       <c r="I65" s="34"/>
       <c r="J65" s="57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K65" s="58"/>
       <c r="L65" s="27"/>
@@ -41933,11 +41909,11 @@
     </row>
     <row r="66" spans="1:64" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
@@ -41946,7 +41922,7 @@
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
       <c r="J66" s="59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K66" s="60"/>
       <c r="L66" s="28"/>
@@ -42005,11 +41981,11 @@
     </row>
     <row r="67" spans="1:64" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -42018,7 +41994,7 @@
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
       <c r="J67" s="59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K67" s="60"/>
       <c r="L67" s="28"/>
@@ -42077,11 +42053,11 @@
     </row>
     <row r="68" spans="1:64" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -42090,7 +42066,7 @@
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="J68" s="59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K68" s="60"/>
       <c r="L68" s="28"/>
@@ -42149,11 +42125,11 @@
     </row>
     <row r="69" spans="1:64" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -42162,7 +42138,7 @@
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
       <c r="J69" s="59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K69" s="60"/>
       <c r="L69" s="28"/>
@@ -42220,7 +42196,7 @@
       <c r="BL69" s="72"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="AE1:AU69">
+  <sortState columnSort="1" ref="AE1:AU69">
     <sortCondition ref="AE1:AU1"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
